--- a/tests/zobrazit_seznam_zapsanych_studentu_do_predmetu.xlsx
+++ b/tests/zobrazit_seznam_zapsanych_studentu_do_predmetu.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sonny\Desktop\MFF UK\Úvod do softwarového inženýrství\NSWI041\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0CE7992-992F-4038-B01E-EC2FC30FA78E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19B05469-45C3-4101-9AA2-394C71C8268C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List 1" sheetId="1" r:id="rId1"/>
@@ -103,9 +103,6 @@
     <t>Učitel si vybere přednášku nebo cvičení, od kterého chce vidět seznam zapsaných studentů.</t>
   </si>
   <si>
-    <t>Učitelovi se zobrazí přednáška nebo cvičení, které si vybral</t>
-  </si>
-  <si>
     <t>Zobrazit seznam zapsaných studentů do předmětu - neúspěch (seznam se nezobrazí)</t>
   </si>
   <si>
@@ -122,6 +119,9 @@
   </si>
   <si>
     <t>Seznam předmětů/cvičení se nezobrazí</t>
+  </si>
+  <si>
+    <t>Učitelovi se zobrazí seznam zapsaných studentů přednášky nebo cvičení, které si vybral</t>
   </si>
 </sst>
 </file>
@@ -398,35 +398,11 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -439,18 +415,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -469,12 +433,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -483,9 +441,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -513,6 +468,51 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -734,504 +734,519 @@
   </sheetPr>
   <dimension ref="B1:F45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36:F36"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="92" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="23.140625" customWidth="1"/>
-    <col min="3" max="3" width="54.28515625" customWidth="1"/>
-    <col min="4" max="4" width="53.85546875" customWidth="1"/>
+    <col min="2" max="2" width="23.109375" customWidth="1"/>
+    <col min="3" max="3" width="54.33203125" customWidth="1"/>
+    <col min="4" max="4" width="53.88671875" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="21" t="s">
+    <row r="1" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="16">
+      <c r="C2" s="32">
         <v>3</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="8"/>
-    </row>
-    <row r="3" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="22" t="s">
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="34"/>
+    </row>
+    <row r="3" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="9"/>
-    </row>
-    <row r="4" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="22" t="s">
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="37"/>
+    </row>
+    <row r="4" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="10"/>
-    </row>
-    <row r="5" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="22" t="s">
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="40"/>
+    </row>
+    <row r="5" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="10"/>
-    </row>
-    <row r="6" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="22" t="s">
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="40"/>
+    </row>
+    <row r="6" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="11"/>
-    </row>
-    <row r="7" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="22" t="s">
+      <c r="C6" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="28"/>
+    </row>
+    <row r="7" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="11"/>
-    </row>
-    <row r="8" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="22" t="s">
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="28"/>
+    </row>
+    <row r="8" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="11"/>
-    </row>
-    <row r="9" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="23" t="s">
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="28"/>
+    </row>
+    <row r="9" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="31">
+      <c r="C9" s="29">
         <v>1</v>
       </c>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="27"/>
-    </row>
-    <row r="10" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="21" t="s">
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="31"/>
+    </row>
+    <row r="10" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="32"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="29"/>
-    </row>
-    <row r="11" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="22" t="s">
+      <c r="C10" s="17"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="15"/>
+    </row>
+    <row r="11" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="33" t="s">
+      <c r="C11" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="38" t="s">
+      <c r="D11" s="23" t="s">
         <v>13</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="30" t="s">
+      <c r="F11" s="16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="2:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="24" t="s">
+    <row r="12" spans="2:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="36" t="s">
+      <c r="C12" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="35" t="s">
+      <c r="D12" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="37" t="s">
+      <c r="E12" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="F12" s="14"/>
-    </row>
-    <row r="13" spans="2:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="24" t="s">
+      <c r="F12" s="6"/>
+    </row>
+    <row r="13" spans="2:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="34" t="s">
+      <c r="C13" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="39" t="s">
+      <c r="D13" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="2:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="19"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="6"/>
+    </row>
+    <row r="15" spans="2:6" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="8"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="5"/>
+    </row>
+    <row r="16" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="32">
+        <v>4</v>
+      </c>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="34"/>
+    </row>
+    <row r="18" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13" s="14"/>
-    </row>
-    <row r="14" spans="2:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="34"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="14"/>
-    </row>
-    <row r="15" spans="2:6" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="20"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="13"/>
-    </row>
-    <row r="16" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17" s="16">
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="37"/>
+    </row>
+    <row r="19" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="40"/>
+    </row>
+    <row r="20" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="8"/>
-    </row>
-    <row r="18" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="22" t="s">
+      <c r="C20" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="40"/>
+    </row>
+    <row r="21" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="28"/>
+    </row>
+    <row r="22" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="28"/>
+    </row>
+    <row r="23" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="28"/>
+    </row>
+    <row r="24" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="29">
         <v>1</v>
       </c>
-      <c r="C18" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="9"/>
-    </row>
-    <row r="19" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="C19" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="10"/>
-    </row>
-    <row r="20" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="10"/>
-    </row>
-    <row r="21" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="11"/>
-    </row>
-    <row r="22" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="11"/>
-    </row>
-    <row r="23" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="11"/>
-    </row>
-    <row r="24" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" s="31">
-        <v>1</v>
-      </c>
-      <c r="D24" s="26"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="27"/>
-    </row>
-    <row r="25" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="21" t="s">
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="31"/>
+    </row>
+    <row r="25" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="32"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="29"/>
-    </row>
-    <row r="26" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="22" t="s">
+      <c r="C25" s="17"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="15"/>
+    </row>
+    <row r="26" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C26" s="33" t="s">
+      <c r="C26" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D26" s="38" t="s">
+      <c r="D26" s="23" t="s">
         <v>13</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F26" s="30" t="s">
+      <c r="F26" s="16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="2:6" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="24" t="s">
+    <row r="27" spans="2:6" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="36" t="s">
+      <c r="C27" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="D27" s="35" t="s">
+      <c r="D27" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="E27" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="F27" s="40"/>
-    </row>
-    <row r="28" spans="2:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="24" t="s">
+      <c r="E27" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="F27" s="25"/>
+    </row>
+    <row r="28" spans="2:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C28" s="34"/>
-      <c r="D28" s="39"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="14"/>
-    </row>
-    <row r="29" spans="2:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="24" t="s">
+      <c r="C28" s="19"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="6"/>
+    </row>
+    <row r="29" spans="2:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C29" s="34"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="14"/>
-    </row>
-    <row r="30" spans="2:6" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="25" t="s">
+      <c r="C29" s="19"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="6"/>
+    </row>
+    <row r="30" spans="2:6" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C30" s="20"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="13"/>
-    </row>
-    <row r="31" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="2:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="B32" s="21" t="s">
+      <c r="C30" s="8"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="5"/>
+    </row>
+    <row r="31" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="2:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B32" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C32" s="16">
+      <c r="C32" s="32">
         <v>5</v>
       </c>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="8"/>
-    </row>
-    <row r="33" spans="2:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="B33" s="22" t="s">
+      <c r="D32" s="33"/>
+      <c r="E32" s="33"/>
+      <c r="F32" s="34"/>
+    </row>
+    <row r="33" spans="2:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B33" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C33" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="9"/>
-    </row>
-    <row r="34" spans="2:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="B34" s="22" t="s">
+      <c r="C33" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" s="36"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="37"/>
+    </row>
+    <row r="34" spans="2:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B34" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C34" s="18" t="s">
+      <c r="C34" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="10"/>
-    </row>
-    <row r="35" spans="2:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="B35" s="22" t="s">
+      <c r="D34" s="39"/>
+      <c r="E34" s="39"/>
+      <c r="F34" s="40"/>
+    </row>
+    <row r="35" spans="2:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B35" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C35" s="18" t="s">
+      <c r="C35" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="10"/>
-    </row>
-    <row r="36" spans="2:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="B36" s="22" t="s">
+      <c r="D35" s="39"/>
+      <c r="E35" s="39"/>
+      <c r="F35" s="40"/>
+    </row>
+    <row r="36" spans="2:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B36" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C36" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="11"/>
-    </row>
-    <row r="37" spans="2:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="B37" s="22" t="s">
+      <c r="C36" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="D36" s="27"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="28"/>
+    </row>
+    <row r="37" spans="2:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B37" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C37" s="19" t="s">
+      <c r="C37" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="11"/>
-    </row>
-    <row r="38" spans="2:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="B38" s="22" t="s">
+      <c r="D37" s="27"/>
+      <c r="E37" s="27"/>
+      <c r="F37" s="28"/>
+    </row>
+    <row r="38" spans="2:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B38" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C38" s="19" t="s">
+      <c r="C38" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="11"/>
-    </row>
-    <row r="39" spans="2:6" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="23" t="s">
+      <c r="D38" s="27"/>
+      <c r="E38" s="27"/>
+      <c r="F38" s="28"/>
+    </row>
+    <row r="39" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C39" s="31">
+      <c r="C39" s="29">
         <v>1</v>
       </c>
-      <c r="D39" s="26"/>
-      <c r="E39" s="26"/>
-      <c r="F39" s="27"/>
-    </row>
-    <row r="40" spans="2:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="B40" s="21" t="s">
+      <c r="D39" s="30"/>
+      <c r="E39" s="30"/>
+      <c r="F39" s="31"/>
+    </row>
+    <row r="40" spans="2:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B40" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C40" s="32"/>
-      <c r="D40" s="28"/>
-      <c r="E40" s="28"/>
-      <c r="F40" s="29"/>
-    </row>
-    <row r="41" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="22" t="s">
+      <c r="C40" s="17"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="15"/>
+    </row>
+    <row r="41" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C41" s="33" t="s">
+      <c r="C41" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D41" s="38" t="s">
+      <c r="D41" s="23" t="s">
         <v>13</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F41" s="30" t="s">
+      <c r="F41" s="16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="2:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="24" t="s">
+    <row r="42" spans="2:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C42" s="36" t="s">
+      <c r="C42" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="D42" s="35" t="s">
+      <c r="D42" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="E42" s="37" t="s">
+      <c r="E42" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="F42" s="40"/>
-    </row>
-    <row r="43" spans="2:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="24" t="s">
+      <c r="F42" s="25"/>
+    </row>
+    <row r="43" spans="2:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C43" s="34" t="s">
+      <c r="C43" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="D43" s="39" t="s">
+      <c r="D43" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="E43" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="E43" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="F43" s="40"/>
-    </row>
-    <row r="44" spans="2:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="24" t="s">
+      <c r="F43" s="25"/>
+    </row>
+    <row r="44" spans="2:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C44" s="34"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="14"/>
-    </row>
-    <row r="45" spans="2:6" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="25" t="s">
+      <c r="C44" s="19"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="6"/>
+    </row>
+    <row r="45" spans="2:6" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C45" s="20"/>
-      <c r="D45" s="15"/>
-      <c r="E45" s="12"/>
-      <c r="F45" s="13"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="C23:F23"/>
     <mergeCell ref="C36:F36"/>
     <mergeCell ref="C37:F37"/>
     <mergeCell ref="C38:F38"/>
@@ -1241,21 +1256,6 @@
     <mergeCell ref="C33:F33"/>
     <mergeCell ref="C34:F34"/>
     <mergeCell ref="C35:F35"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="C18:F18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
